--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.6535542881149127</v>
+        <v>-0.004352184707636121</v>
       </c>
       <c r="C2">
-        <v>1.261084607301913</v>
+        <v>0.007745999262956658</v>
       </c>
       <c r="D2">
-        <v>0.6715977486326951</v>
+        <v>0.006188661475682636</v>
       </c>
       <c r="E2">
-        <v>0.1306588309529222</v>
+        <v>0.004686350595979886</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004634638876365982</v>
+        <v>-0.2054326987026093</v>
       </c>
       <c r="C3">
-        <v>0.007349855499818131</v>
+        <v>0.3806432274540968</v>
       </c>
       <c r="D3">
-        <v>0.006725729988139415</v>
+        <v>0.2766998725871549</v>
       </c>
       <c r="E3">
-        <v>0.005363333204939915</v>
+        <v>0.1929818726552361</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4865343977382304</v>
+        <v>-0.00418256055181471</v>
       </c>
       <c r="C4">
-        <v>0.811078139455163</v>
+        <v>0.007316445556308104</v>
       </c>
       <c r="D4">
-        <v>0.7384101238802109</v>
+        <v>0.006508254340473589</v>
       </c>
       <c r="E4">
-        <v>0.2305102716938598</v>
+        <v>0.004438460614268668</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5313675433570246</v>
+        <v>-0.3696041656801276</v>
       </c>
       <c r="C5">
-        <v>1.021155198583366</v>
+        <v>0.6689501618955528</v>
       </c>
       <c r="D5">
-        <v>0.6505203796070942</v>
+        <v>0.5019118813207166</v>
       </c>
       <c r="E5">
-        <v>0.2888910663092316</v>
+        <v>0.2716467727173093</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.00495899281084926</v>
+        <v>-0.5363484330251138</v>
       </c>
       <c r="C6">
-        <v>0.008351619721310074</v>
+        <v>1.202337536043754</v>
       </c>
       <c r="D6">
-        <v>0.006416368144438639</v>
+        <v>0.3764604526187792</v>
       </c>
       <c r="E6">
-        <v>0.005111383350031844</v>
+        <v>0.3052431700879304</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.004485133698065285</v>
+        <v>-0.3932919188047462</v>
       </c>
       <c r="C7">
-        <v>0.00754524396000307</v>
+        <v>0.7894961659879736</v>
       </c>
       <c r="D7">
-        <v>0.006799630508369981</v>
+        <v>0.4853205570214311</v>
       </c>
       <c r="E7">
-        <v>0.004546613652029979</v>
+        <v>0.2121918862321982</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.6819764952325967</v>
+        <v>-0.4390689035192065</v>
       </c>
       <c r="C8">
-        <v>0.9225237901499382</v>
+        <v>0.8332984321958589</v>
       </c>
       <c r="D8">
-        <v>1.009857552525141</v>
+        <v>0.5173584910146309</v>
       </c>
       <c r="E8">
-        <v>0.2661357354197637</v>
+        <v>0.4648283161412853</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.466155943964024</v>
+        <v>-0.005228504116206004</v>
       </c>
       <c r="C9">
-        <v>0.7574472713834998</v>
+        <v>0.00825956626269393</v>
       </c>
       <c r="D9">
-        <v>0.6006811322654493</v>
+        <v>0.006958608416033457</v>
       </c>
       <c r="E9">
-        <v>0.3049238959969385</v>
+        <v>0.005270444973349639</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4303650168382638</v>
+        <v>-0.2294396531054723</v>
       </c>
       <c r="C10">
-        <v>0.7822588278847603</v>
+        <v>0.3887394169972557</v>
       </c>
       <c r="D10">
-        <v>0.4461713450483364</v>
+        <v>0.3100798994038499</v>
       </c>
       <c r="E10">
-        <v>0.3561996340809481</v>
+        <v>0.1991411287675814</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.4026622319043639</v>
+        <v>-0.3671763334258824</v>
       </c>
       <c r="C11">
-        <v>0.8464082972850342</v>
+        <v>0.7645237313568182</v>
       </c>
       <c r="D11">
-        <v>0.3985557029600489</v>
+        <v>0.5011309084751336</v>
       </c>
       <c r="E11">
-        <v>0.2467270608284921</v>
+        <v>0.1323885997099103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4516288400577734</v>
+        <v>-0.003836679486454755</v>
       </c>
       <c r="C12">
-        <v>0.7368747176408883</v>
+        <v>0.007484758829217912</v>
       </c>
       <c r="D12">
-        <v>0.4908965520920326</v>
+        <v>0.005704889742529679</v>
       </c>
       <c r="E12">
-        <v>0.3517932335829208</v>
+        <v>0.004185208686446376</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2075933785825083</v>
+        <v>-0.04299846571938807</v>
       </c>
       <c r="C13">
-        <v>0.3729098132583175</v>
+        <v>0.07238995831663207</v>
       </c>
       <c r="D13">
-        <v>0.3084579821541662</v>
+        <v>0.0587653805109364</v>
       </c>
       <c r="E13">
-        <v>0.1650518514292874</v>
+        <v>0.04336641422501668</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.003815391505688951</v>
+        <v>-0.2157787396566439</v>
       </c>
       <c r="C14">
-        <v>0.007983252241132768</v>
+        <v>0.3451808213406092</v>
       </c>
       <c r="D14">
-        <v>0.005188173766856314</v>
+        <v>0.2985373618046791</v>
       </c>
       <c r="E14">
-        <v>0.003825678412359623</v>
+        <v>0.2261576229460758</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3947070826068859</v>
+        <v>-0.003645016059758011</v>
       </c>
       <c r="C15">
-        <v>0.7601021498629476</v>
+        <v>0.006966563555099056</v>
       </c>
       <c r="D15">
-        <v>0.4831012746443176</v>
+        <v>0.005839343044260252</v>
       </c>
       <c r="E15">
-        <v>0.2822465195398638</v>
+        <v>0.004255308160239047</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.005221155613024997</v>
+        <v>-0.04058382099393196</v>
       </c>
       <c r="C16">
-        <v>0.007621775535920048</v>
+        <v>0.06138498994352085</v>
       </c>
       <c r="D16">
-        <v>0.007640937335032904</v>
+        <v>0.06566339469576093</v>
       </c>
       <c r="E16">
-        <v>0.005252996302285332</v>
+        <v>0.04326093883449416</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.004770684736755943</v>
+        <v>-0.4204603281097394</v>
       </c>
       <c r="C17">
-        <v>0.007338983223211098</v>
+        <v>0.7604123609849316</v>
       </c>
       <c r="D17">
-        <v>0.007515856001472613</v>
+        <v>0.5446027350985257</v>
       </c>
       <c r="E17">
-        <v>0.004626104335524948</v>
+        <v>0.4278200679712114</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.004024419011133433</v>
+        <v>-0.4139283885218549</v>
       </c>
       <c r="C18">
-        <v>0.006858083350203102</v>
+        <v>0.7522214997024478</v>
       </c>
       <c r="D18">
-        <v>0.006604514920853717</v>
+        <v>0.6078845564330747</v>
       </c>
       <c r="E18">
-        <v>0.004540209018025134</v>
+        <v>0.1568078620723747</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4191007339031143</v>
+        <v>-0.4228647212563335</v>
       </c>
       <c r="C19">
-        <v>0.8925172898748972</v>
+        <v>0.7805703964193704</v>
       </c>
       <c r="D19">
-        <v>0.3847418254450724</v>
+        <v>0.4617632054186209</v>
       </c>
       <c r="E19">
-        <v>0.1992544193716696</v>
+        <v>0.2821228282582278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5420991715550872</v>
+        <v>-0.4448357562464684</v>
       </c>
       <c r="C20">
-        <v>1.012694860983781</v>
+        <v>0.7366572569045572</v>
       </c>
       <c r="D20">
-        <v>0.6690760437584203</v>
+        <v>0.6294846688701695</v>
       </c>
       <c r="E20">
-        <v>0.271557387215518</v>
+        <v>0.2004608386442619</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.03969756003232427</v>
+        <v>-0.004654068988376544</v>
       </c>
       <c r="C21">
-        <v>0.06105512064465713</v>
+        <v>0.007863883624894213</v>
       </c>
       <c r="D21">
-        <v>0.06127118578924245</v>
+        <v>0.0065069304263098</v>
       </c>
       <c r="E21">
-        <v>0.04727222632628606</v>
+        <v>0.004942530514163211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.542171395963421</v>
+        <v>-0.3721981865103939</v>
       </c>
       <c r="C22">
-        <v>1.000940380012366</v>
+        <v>0.8184521913960034</v>
       </c>
       <c r="D22">
-        <v>0.5839257271318495</v>
+        <v>0.6018047583386904</v>
       </c>
       <c r="E22">
-        <v>0.2760643731392327</v>
+        <v>0.1126152502554972</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.2189907953598965</v>
+        <v>-0.005447002374116302</v>
       </c>
       <c r="C23">
-        <v>0.3437143804338301</v>
+        <v>0.008534073868971708</v>
       </c>
       <c r="D23">
-        <v>0.3220734923384151</v>
+        <v>0.006948869547199401</v>
       </c>
       <c r="E23">
-        <v>0.2145980410432359</v>
+        <v>0.005406743611630368</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.004769970273415288</v>
+        <v>-0.1943812318863563</v>
       </c>
       <c r="C24">
-        <v>0.007203791742692455</v>
+        <v>0.3058031783758579</v>
       </c>
       <c r="D24">
-        <v>0.007193032353477116</v>
+        <v>0.3172157895624855</v>
       </c>
       <c r="E24">
-        <v>0.005277507639320703</v>
+        <v>0.201771914403563</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.2279068379652611</v>
+        <v>-0.2217038851472304</v>
       </c>
       <c r="C25">
-        <v>0.4104233485254496</v>
+        <v>0.4100705807279039</v>
       </c>
       <c r="D25">
-        <v>0.2566564583341088</v>
+        <v>0.2879828301636956</v>
       </c>
       <c r="E25">
-        <v>0.215997635463083</v>
+        <v>0.1718862910830491</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2103925868341863</v>
+        <v>-0.4978069627706196</v>
       </c>
       <c r="C26">
-        <v>0.3576903013917325</v>
+        <v>1.030663423478463</v>
       </c>
       <c r="D26">
-        <v>0.3097051528423582</v>
+        <v>0.5627047645591138</v>
       </c>
       <c r="E26">
-        <v>0.1739429796481065</v>
+        <v>0.2707070074407772</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5603554327808907</v>
+        <v>-0.3824101803858209</v>
       </c>
       <c r="C27">
-        <v>0.9972759828399191</v>
+        <v>0.8173634949093265</v>
       </c>
       <c r="D27">
-        <v>0.7872203718259421</v>
+        <v>0.4506474614875166</v>
       </c>
       <c r="E27">
-        <v>0.1107864370808277</v>
+        <v>0.1652901257372612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2666049115260773</v>
+        <v>-0.5214543764493422</v>
       </c>
       <c r="C28">
-        <v>0.392201623478294</v>
+        <v>1.134931863330855</v>
       </c>
       <c r="D28">
-        <v>0.3454519765834287</v>
+        <v>0.6009563261859808</v>
       </c>
       <c r="E28">
-        <v>0.2254444772823981</v>
+        <v>0.2144509681500897</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.03798579287398736</v>
+        <v>-0.5478598100287815</v>
       </c>
       <c r="C29">
-        <v>0.07067504038911031</v>
+        <v>0.8295481494775181</v>
       </c>
       <c r="D29">
-        <v>0.05469794279099243</v>
+        <v>0.8744089862965542</v>
       </c>
       <c r="E29">
-        <v>0.03786551566823215</v>
+        <v>0.3126560638922969</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.216684109634437</v>
+        <v>-0.5316893459197618</v>
       </c>
       <c r="C30">
-        <v>0.4400311951894462</v>
+        <v>0.9426461094158399</v>
       </c>
       <c r="D30">
-        <v>0.2544546706751861</v>
+        <v>0.7261805394598309</v>
       </c>
       <c r="E30">
-        <v>0.150015664347451</v>
+        <v>0.250408410849652</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.1811164820680281</v>
+        <v>-0.005498850808466697</v>
       </c>
       <c r="C31">
-        <v>0.3284510543472061</v>
+        <v>0.008531171664749537</v>
       </c>
       <c r="D31">
-        <v>0.283715520878294</v>
+        <v>0.007206086907492361</v>
       </c>
       <c r="E31">
-        <v>0.1806492303110897</v>
+        <v>0.005204966569349276</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2009566385873122</v>
+        <v>-0.5016041908532201</v>
       </c>
       <c r="C32">
-        <v>0.3534464818450778</v>
+        <v>0.9733112178717449</v>
       </c>
       <c r="D32">
-        <v>0.3024187195566939</v>
+        <v>0.5814933851012434</v>
       </c>
       <c r="E32">
-        <v>0.1799622579403156</v>
+        <v>0.2618508290728334</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.6205177682654901</v>
+        <v>-0.4810634702269022</v>
       </c>
       <c r="C33">
-        <v>1.04226605784098</v>
+        <v>0.8079162647276752</v>
       </c>
       <c r="D33">
-        <v>0.7228818629960876</v>
+        <v>0.7799512098282184</v>
       </c>
       <c r="E33">
-        <v>0.3974573789000934</v>
+        <v>0.2430243005396756</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003671504818720981</v>
+        <v>-0.003965311758456511</v>
       </c>
       <c r="C34">
-        <v>0.006921175110580901</v>
+        <v>0.007200462521360188</v>
       </c>
       <c r="D34">
-        <v>0.005932833985297833</v>
+        <v>0.006010752333866892</v>
       </c>
       <c r="E34">
-        <v>0.004287920930669273</v>
+        <v>0.004637191441888282</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2258280932792613</v>
+        <v>-0.2105473923022868</v>
       </c>
       <c r="C35">
-        <v>0.4027515851465155</v>
+        <v>0.4063296823445907</v>
       </c>
       <c r="D35">
-        <v>0.2817728697008935</v>
+        <v>0.240464534820717</v>
       </c>
       <c r="E35">
-        <v>0.1793584050950404</v>
+        <v>0.1875064915557125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.1962137838486095</v>
+        <v>-0.236564574910266</v>
       </c>
       <c r="C36">
-        <v>0.3432324092690028</v>
+        <v>0.3860464123321031</v>
       </c>
       <c r="D36">
-        <v>0.264756108635288</v>
+        <v>0.270197115535881</v>
       </c>
       <c r="E36">
-        <v>0.2323420702274026</v>
+        <v>0.2434616291270562</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.1909665302257001</v>
+        <v>-0.004448030384000532</v>
       </c>
       <c r="C37">
-        <v>0.3609968916610229</v>
+        <v>0.007163716139719545</v>
       </c>
       <c r="D37">
-        <v>0.2895389600705022</v>
+        <v>0.006772367983740331</v>
       </c>
       <c r="E37">
-        <v>0.1425000679469523</v>
+        <v>0.005064441030184216</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.004335295062378727</v>
+        <v>-0.004261944617849289</v>
       </c>
       <c r="C38">
-        <v>0.007482576381865648</v>
+        <v>0.007507530415327039</v>
       </c>
       <c r="D38">
-        <v>0.006305201105850918</v>
+        <v>0.005854090399482063</v>
       </c>
       <c r="E38">
-        <v>0.004898965102347777</v>
+        <v>0.005199638111283789</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5778572336064892</v>
+        <v>-0.1838555641887465</v>
       </c>
       <c r="C39">
-        <v>0.9490898151298146</v>
+        <v>0.3518804684616266</v>
       </c>
       <c r="D39">
-        <v>0.761688564416661</v>
+        <v>0.2585222201899706</v>
       </c>
       <c r="E39">
-        <v>0.3288533005248497</v>
+        <v>0.1898933946205584</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.4261521574578049</v>
+        <v>-0.5230293186592522</v>
       </c>
       <c r="C40">
-        <v>0.686455851753714</v>
+        <v>1.03181502882602</v>
       </c>
       <c r="D40">
-        <v>0.6641533049015471</v>
+        <v>0.6341301398066183</v>
       </c>
       <c r="E40">
-        <v>0.1986180782420922</v>
+        <v>0.2074717826262942</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3825527358604178</v>
+        <v>-0.7575469759521063</v>
       </c>
       <c r="C41">
-        <v>0.8182469022704153</v>
+        <v>1.150919843733361</v>
       </c>
       <c r="D41">
-        <v>0.4552738905863866</v>
+        <v>1.008405012796563</v>
       </c>
       <c r="E41">
-        <v>0.2897351186555416</v>
+        <v>0.164519367125575</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5186230412802003</v>
+        <v>-0.6546671528367529</v>
       </c>
       <c r="C42">
-        <v>1.027816971613863</v>
+        <v>1.299443682786512</v>
       </c>
       <c r="D42">
-        <v>0.780245582964478</v>
+        <v>0.5696061322379772</v>
       </c>
       <c r="E42">
-        <v>0.101983591308781</v>
+        <v>0.3248976920977337</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.4450257581151615</v>
+        <v>-0.03942700417007169</v>
       </c>
       <c r="C43">
-        <v>0.9994284655850998</v>
+        <v>0.07146531114985168</v>
       </c>
       <c r="D43">
-        <v>0.6749324179865333</v>
+        <v>0.0547364612016072</v>
       </c>
       <c r="E43">
-        <v>0.09092897762716039</v>
+        <v>0.0405163822308523</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4121404123734331</v>
+        <v>-0.4850339582866051</v>
       </c>
       <c r="C44">
-        <v>0.842793574729224</v>
+        <v>0.9043275287753982</v>
       </c>
       <c r="D44">
-        <v>0.4864357620916075</v>
+        <v>0.5915252670775174</v>
       </c>
       <c r="E44">
-        <v>0.2597464604793518</v>
+        <v>0.2345145124267868</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.22393630133428</v>
+        <v>-0.4024210681850092</v>
       </c>
       <c r="C45">
-        <v>0.360479915641423</v>
+        <v>0.8232828190505757</v>
       </c>
       <c r="D45">
-        <v>0.2922961311505717</v>
+        <v>0.4765778264887661</v>
       </c>
       <c r="E45">
-        <v>0.225926893960445</v>
+        <v>0.1913434064327586</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.6967192421942036</v>
+        <v>-0.5169940873471136</v>
       </c>
       <c r="C46">
-        <v>1.127159782217743</v>
+        <v>1.046752900676993</v>
       </c>
       <c r="D46">
-        <v>0.8049391030481508</v>
+        <v>0.6152308594780977</v>
       </c>
       <c r="E46">
-        <v>0.2874298670763267</v>
+        <v>0.2631431242166172</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.03606797907085053</v>
+        <v>-0.4105045258093025</v>
       </c>
       <c r="C47">
-        <v>0.06556431932349652</v>
+        <v>0.8246067069588563</v>
       </c>
       <c r="D47">
-        <v>0.05458281227051136</v>
+        <v>0.5645608909321805</v>
       </c>
       <c r="E47">
-        <v>0.04075415658398743</v>
+        <v>0.2404783591897706</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2086558004056036</v>
+        <v>-0.2318948695545197</v>
       </c>
       <c r="C48">
-        <v>0.375121147074417</v>
+        <v>0.3812055048539733</v>
       </c>
       <c r="D48">
-        <v>0.3042421273290703</v>
+        <v>0.3212540962287389</v>
       </c>
       <c r="E48">
-        <v>0.1828086779429373</v>
+        <v>0.2046514805728175</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5111331574651055</v>
+        <v>-0.5628657602232461</v>
       </c>
       <c r="C49">
-        <v>0.9571851558910889</v>
+        <v>1.12806908254476</v>
       </c>
       <c r="D49">
-        <v>0.6911498647211894</v>
+        <v>0.7796069439601258</v>
       </c>
       <c r="E49">
-        <v>0.2947882865926765</v>
+        <v>0.1217146075190404</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.03896384976432931</v>
+        <v>-0.4323451401134802</v>
       </c>
       <c r="C50">
-        <v>0.06172146175009545</v>
+        <v>0.8495283401340877</v>
       </c>
       <c r="D50">
-        <v>0.06184754544045735</v>
+        <v>0.6521034014821604</v>
       </c>
       <c r="E50">
-        <v>0.04482495704805145</v>
+        <v>0.2939538484978712</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5973452565355823</v>
+        <v>-0.5623140360277853</v>
       </c>
       <c r="C51">
-        <v>0.7481849338343979</v>
+        <v>1.118398873429561</v>
       </c>
       <c r="D51">
-        <v>0.9093822669035247</v>
+        <v>0.5248160337533078</v>
       </c>
       <c r="E51">
-        <v>0.2230157692308369</v>
+        <v>0.4605897377223098</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.5998858952565165</v>
+        <v>-0.3484327231886483</v>
       </c>
       <c r="C52">
-        <v>1.09150737511413</v>
+        <v>0.6856193450178968</v>
       </c>
       <c r="D52">
-        <v>0.8673678558556236</v>
+        <v>0.5036043159252348</v>
       </c>
       <c r="E52">
-        <v>0.1530607164382189</v>
+        <v>0.2237035553889703</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.5517952131123177</v>
+        <v>-0.4266320929151338</v>
       </c>
       <c r="C53">
-        <v>1.05635849713837</v>
+        <v>0.8837681298431553</v>
       </c>
       <c r="D53">
-        <v>0.7136033818145679</v>
+        <v>0.4553342114081008</v>
       </c>
       <c r="E53">
-        <v>0.2231557636512612</v>
+        <v>0.2684326393554212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4376030966808866</v>
+        <v>-0.003602841001964387</v>
       </c>
       <c r="C54">
-        <v>0.8315345613912675</v>
+        <v>0.006727837005061352</v>
       </c>
       <c r="D54">
-        <v>0.5131113149017206</v>
+        <v>0.006058712722539154</v>
       </c>
       <c r="E54">
-        <v>0.3443424397562543</v>
+        <v>0.004200309886335599</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.2231263388159664</v>
+        <v>-0.180242649841879</v>
       </c>
       <c r="C55">
-        <v>0.3981609822384291</v>
+        <v>0.3336004283467622</v>
       </c>
       <c r="D55">
-        <v>0.3404106486097054</v>
+        <v>0.312449742593308</v>
       </c>
       <c r="E55">
-        <v>0.1160932646368379</v>
+        <v>0.1364443431327799</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5506284257635844</v>
+        <v>-0.6058684252315337</v>
       </c>
       <c r="C56">
-        <v>0.9869084756695689</v>
+        <v>0.9468897233455288</v>
       </c>
       <c r="D56">
-        <v>0.9073627086356602</v>
+        <v>0.8808512910615351</v>
       </c>
       <c r="E56">
-        <v>0.05076616980588803</v>
+        <v>0.2396876036801572</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4483301138950925</v>
+        <v>-0.395995829180911</v>
       </c>
       <c r="C57">
-        <v>0.7580965699919926</v>
+        <v>0.6279646330759847</v>
       </c>
       <c r="D57">
-        <v>0.8194743603151204</v>
+        <v>0.5966108899891255</v>
       </c>
       <c r="E57">
-        <v>0.06753779795732728</v>
+        <v>0.2773794945611311</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.003836807337553364</v>
+        <v>-0.004371523977677859</v>
       </c>
       <c r="C58">
-        <v>0.00689267440579722</v>
+        <v>0.007643539053333526</v>
       </c>
       <c r="D58">
-        <v>0.006546015831787468</v>
+        <v>0.006548218374606529</v>
       </c>
       <c r="E58">
-        <v>0.003932954675468783</v>
+        <v>0.004410342315279767</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.03881245418360565</v>
+        <v>-0.5456773294084595</v>
       </c>
       <c r="C59">
-        <v>0.06453041064783681</v>
+        <v>1.118050883594816</v>
       </c>
       <c r="D59">
-        <v>0.05673014046374431</v>
+        <v>0.633100109971901</v>
       </c>
       <c r="E59">
-        <v>0.0460465751479303</v>
+        <v>0.209738092652729</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4253534175752189</v>
+        <v>-0.393232131585549</v>
       </c>
       <c r="C60">
-        <v>0.9038750672830201</v>
+        <v>0.8052859679601831</v>
       </c>
       <c r="D60">
-        <v>0.5440700710085287</v>
+        <v>0.5890379260686406</v>
       </c>
       <c r="E60">
-        <v>0.1508494815655656</v>
+        <v>0.2038866884819776</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2535260958477043</v>
+        <v>-0.004817237187189239</v>
       </c>
       <c r="C61">
-        <v>0.4286977368649353</v>
+        <v>0.00772755229355326</v>
       </c>
       <c r="D61">
-        <v>0.3268384260370784</v>
+        <v>0.007036002115162848</v>
       </c>
       <c r="E61">
-        <v>0.152871886484368</v>
+        <v>0.004874812470304114</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.004485606635005718</v>
+        <v>-0.6004761571325432</v>
       </c>
       <c r="C62">
-        <v>0.00735942492577731</v>
+        <v>1.088750793451519</v>
       </c>
       <c r="D62">
-        <v>0.006641609323363429</v>
+        <v>0.7506427756434801</v>
       </c>
       <c r="E62">
-        <v>0.005051822369512953</v>
+        <v>0.2450167883865437</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.004850897691021686</v>
+        <v>-0.4091648230868741</v>
       </c>
       <c r="C63">
-        <v>0.007139819529987863</v>
+        <v>0.753279880312887</v>
       </c>
       <c r="D63">
-        <v>0.006597042717031411</v>
+        <v>0.5101864480678825</v>
       </c>
       <c r="E63">
-        <v>0.006266489178217391</v>
+        <v>0.2369609272394781</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.005260435298580256</v>
+        <v>-0.6050368369874818</v>
       </c>
       <c r="C64">
-        <v>0.008067786571592545</v>
+        <v>0.8932479638201077</v>
       </c>
       <c r="D64">
-        <v>0.007214145215505083</v>
+        <v>0.782030075112498</v>
       </c>
       <c r="E64">
-        <v>0.005299907913168936</v>
+        <v>0.3604011657175956</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.3378945971327381</v>
+        <v>-0.1951588995060421</v>
       </c>
       <c r="C65">
-        <v>0.642879849365527</v>
+        <v>0.372545745598031</v>
       </c>
       <c r="D65">
-        <v>0.4799387412613514</v>
+        <v>0.2692971779836124</v>
       </c>
       <c r="E65">
-        <v>0.2344064582861171</v>
+        <v>0.1791525294559041</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2190937244752135</v>
+        <v>-0.4090512683802548</v>
       </c>
       <c r="C66">
-        <v>0.4182333056619132</v>
+        <v>0.704362906010726</v>
       </c>
       <c r="D66">
-        <v>0.2596301310846431</v>
+        <v>0.6070546932897785</v>
       </c>
       <c r="E66">
-        <v>0.1765663723801611</v>
+        <v>0.2398302325381806</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.3546710759313818</v>
+        <v>-0.2088360410341975</v>
       </c>
       <c r="C67">
-        <v>0.7793461926463131</v>
+        <v>0.4223130344335433</v>
       </c>
       <c r="D67">
-        <v>0.4378433060185663</v>
+        <v>0.1890745660325762</v>
       </c>
       <c r="E67">
-        <v>0.1783546013937526</v>
+        <v>0.2134519168879105</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.004127699380337547</v>
+        <v>-0.539517137153077</v>
       </c>
       <c r="C68">
-        <v>0.007440142486863428</v>
+        <v>0.9224037010292643</v>
       </c>
       <c r="D68">
-        <v>0.006571642719888485</v>
+        <v>0.5829859197764429</v>
       </c>
       <c r="E68">
-        <v>0.003952585557020438</v>
+        <v>0.328910965385633</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.208976013352184</v>
+        <v>-0.4230313242963901</v>
       </c>
       <c r="C69">
-        <v>0.3698911952578385</v>
+        <v>0.7924557955440014</v>
       </c>
       <c r="D69">
-        <v>0.2649626643828415</v>
+        <v>0.6025318489248495</v>
       </c>
       <c r="E69">
-        <v>0.2116920025032622</v>
+        <v>0.2669233124684677</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5136271945254585</v>
+        <v>-0.4291700468125019</v>
       </c>
       <c r="C70">
-        <v>1.052675978135904</v>
+        <v>0.8662555223581292</v>
       </c>
       <c r="D70">
-        <v>0.5859238535682482</v>
+        <v>0.5009324296145209</v>
       </c>
       <c r="E70">
-        <v>0.371233919971268</v>
+        <v>0.2035963971739075</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.04212868664873255</v>
+        <v>-0.004414209016783101</v>
       </c>
       <c r="C71">
-        <v>0.06571057960290014</v>
+        <v>0.007969734540990996</v>
       </c>
       <c r="D71">
-        <v>0.05908543830831825</v>
+        <v>0.005835578399717697</v>
       </c>
       <c r="E71">
-        <v>0.05045472357029655</v>
+        <v>0.004911263049888208</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.3726673850623606</v>
+        <v>-0.004572109080496042</v>
       </c>
       <c r="C72">
-        <v>0.6943083080488583</v>
+        <v>0.007824206504663356</v>
       </c>
       <c r="D72">
-        <v>0.5660491553738788</v>
+        <v>0.006335007035675504</v>
       </c>
       <c r="E72">
-        <v>0.1570942697638094</v>
+        <v>0.004987020604038528</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1737257394997413</v>
+        <v>-0.4171039520398375</v>
       </c>
       <c r="C73">
-        <v>0.3679215469236652</v>
+        <v>0.6843754717835181</v>
       </c>
       <c r="D73">
-        <v>0.2600821770914712</v>
+        <v>0.4920056871310372</v>
       </c>
       <c r="E73">
-        <v>0.1448532141946007</v>
+        <v>0.3765583519041845</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.4547891715545031</v>
+        <v>-0.5068064092875481</v>
       </c>
       <c r="C74">
-        <v>0.8045754708995206</v>
+        <v>0.9523533761884191</v>
       </c>
       <c r="D74">
-        <v>0.5720814640912042</v>
+        <v>0.6678623502904153</v>
       </c>
       <c r="E74">
-        <v>0.2495367690214012</v>
+        <v>0.249281114902298</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.490829436574104</v>
+        <v>-0.2072549994240485</v>
       </c>
       <c r="C75">
-        <v>0.905914535170648</v>
+        <v>0.3726875419931946</v>
       </c>
       <c r="D75">
-        <v>0.5608877242028308</v>
+        <v>0.2829411198400382</v>
       </c>
       <c r="E75">
-        <v>0.3298352212491502</v>
+        <v>0.1926234295876198</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.6446819057161098</v>
+        <v>-0.3779823346687524</v>
       </c>
       <c r="C76">
-        <v>1.17533208823595</v>
+        <v>0.750747295515921</v>
       </c>
       <c r="D76">
-        <v>0.773986143164847</v>
+        <v>0.5112657402180838</v>
       </c>
       <c r="E76">
-        <v>0.2037414983390612</v>
+        <v>0.218830413859787</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4930410743837524</v>
+        <v>-0.004159753714348107</v>
       </c>
       <c r="C77">
-        <v>0.923040028837807</v>
+        <v>0.006707406523130575</v>
       </c>
       <c r="D77">
-        <v>0.6651987801369963</v>
+        <v>0.00688396290639223</v>
       </c>
       <c r="E77">
-        <v>0.1562581084901385</v>
+        <v>0.004750389865823501</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.5059090409454233</v>
+        <v>-0.5838428305797343</v>
       </c>
       <c r="C78">
-        <v>0.9320015423265138</v>
+        <v>1.149818688164883</v>
       </c>
       <c r="D78">
-        <v>0.708307118761059</v>
+        <v>0.6812156801489486</v>
       </c>
       <c r="E78">
-        <v>0.2668503333137713</v>
+        <v>0.1879437883858689</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.03818141370149054</v>
+        <v>-0.5338807333692284</v>
       </c>
       <c r="C79">
-        <v>0.07102521445489066</v>
+        <v>0.9241462381642557</v>
       </c>
       <c r="D79">
-        <v>0.04790818515388783</v>
+        <v>0.7936749108279136</v>
       </c>
       <c r="E79">
-        <v>0.04577481153901397</v>
+        <v>0.2315356248505095</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.03725900636673131</v>
+        <v>-0.6073124323963998</v>
       </c>
       <c r="C80">
-        <v>0.06057929432364399</v>
+        <v>0.9479733468304311</v>
       </c>
       <c r="D80">
-        <v>0.06119222872992089</v>
+        <v>0.8344426303019461</v>
       </c>
       <c r="E80">
-        <v>0.04236161239994575</v>
+        <v>0.3087756411966711</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.3304746430675977</v>
+        <v>-0.2083924025927429</v>
       </c>
       <c r="C81">
-        <v>0.709293819672057</v>
+        <v>0.409901394887532</v>
       </c>
       <c r="D81">
-        <v>0.4373527301075683</v>
+        <v>0.270459321033578</v>
       </c>
       <c r="E81">
-        <v>0.2064626877039686</v>
+        <v>0.1602027274793129</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.004907719767281532</v>
+        <v>-0.1734300629886067</v>
       </c>
       <c r="C82">
-        <v>0.008380679234473054</v>
+        <v>0.2966364852493102</v>
       </c>
       <c r="D82">
-        <v>0.005810370035891107</v>
+        <v>0.3253153957715557</v>
       </c>
       <c r="E82">
-        <v>0.005612823097783658</v>
+        <v>0.1332749915573022</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.2002812984644765</v>
+        <v>-0.4991858214194237</v>
       </c>
       <c r="C83">
-        <v>0.4154336922426359</v>
+        <v>0.9186005476927523</v>
       </c>
       <c r="D83">
-        <v>0.2480192550082827</v>
+        <v>0.6210388023058625</v>
       </c>
       <c r="E83">
-        <v>0.1575832596360838</v>
+        <v>0.3257280033879591</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.5393232380788522</v>
+        <v>-0.003606452507982104</v>
       </c>
       <c r="C84">
-        <v>1.078683286022638</v>
+        <v>0.007153110081680516</v>
       </c>
       <c r="D84">
-        <v>0.6361954681204568</v>
+        <v>0.005440238202345785</v>
       </c>
       <c r="E84">
-        <v>0.3729697271211753</v>
+        <v>0.004316354749841723</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2249813830973857</v>
+        <v>-0.4686341969124865</v>
       </c>
       <c r="C85">
-        <v>0.3968868952700924</v>
+        <v>0.9904776876008562</v>
       </c>
       <c r="D85">
-        <v>0.3174554106096477</v>
+        <v>0.6927215341420917</v>
       </c>
       <c r="E85">
-        <v>0.154731354624481</v>
+        <v>0.1114740839524549</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.004747754912883028</v>
+        <v>-0.4625876957115446</v>
       </c>
       <c r="C86">
-        <v>0.007224637893852951</v>
+        <v>0.9500573235373893</v>
       </c>
       <c r="D86">
-        <v>0.007338178057425106</v>
+        <v>0.6179401646465155</v>
       </c>
       <c r="E86">
-        <v>0.005003048036953179</v>
+        <v>0.2789930014639466</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3757492702656492</v>
+        <v>-0.5930341823580187</v>
       </c>
       <c r="C87">
-        <v>0.7299716391269964</v>
+        <v>0.8704313138454498</v>
       </c>
       <c r="D87">
-        <v>0.5152143964736033</v>
+        <v>0.8228515421432189</v>
       </c>
       <c r="E87">
-        <v>0.2045656495169061</v>
+        <v>0.3378658000429528</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2575236518400376</v>
+        <v>-0.4468595510060741</v>
       </c>
       <c r="C88">
-        <v>0.3920208111244147</v>
+        <v>0.781247819992686</v>
       </c>
       <c r="D88">
-        <v>0.3222183421790779</v>
+        <v>0.6607109422960817</v>
       </c>
       <c r="E88">
-        <v>0.2205544494820837</v>
+        <v>0.1863513293662579</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.2108698620294036</v>
+        <v>-0.6741958961466432</v>
       </c>
       <c r="C89">
-        <v>0.4050838776055994</v>
+        <v>0.994290394466985</v>
       </c>
       <c r="D89">
-        <v>0.229307369301735</v>
+        <v>0.8268414493344038</v>
       </c>
       <c r="E89">
-        <v>0.2226657085618805</v>
+        <v>0.3488719549745663</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.347641172368024</v>
+        <v>-0.6568583665717125</v>
       </c>
       <c r="C90">
-        <v>0.6942982618825253</v>
+        <v>1.113630872616759</v>
       </c>
       <c r="D90">
-        <v>0.446766165486207</v>
+        <v>0.7902196001661408</v>
       </c>
       <c r="E90">
-        <v>0.2646034040563832</v>
+        <v>0.269755970350693</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4901110478386415</v>
+        <v>-0.5024718995956089</v>
       </c>
       <c r="C91">
-        <v>1.049890741854071</v>
+        <v>0.9347400268285564</v>
       </c>
       <c r="D91">
-        <v>0.7016051953642829</v>
+        <v>0.6190842303402773</v>
       </c>
       <c r="E91">
-        <v>0.05880895261215127</v>
+        <v>0.2106459544486982</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.1926644887214622</v>
+        <v>-0.004162275673918804</v>
       </c>
       <c r="C92">
-        <v>0.3903225249482178</v>
+        <v>0.007065206354923711</v>
       </c>
       <c r="D92">
-        <v>0.2823314128969449</v>
+        <v>0.006353043544121337</v>
       </c>
       <c r="E92">
-        <v>0.1311184613578107</v>
+        <v>0.004967821968207883</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2092599378528162</v>
+        <v>-0.3207948899250864</v>
       </c>
       <c r="C93">
-        <v>0.3473101323590397</v>
+        <v>0.646492231173419</v>
       </c>
       <c r="D93">
-        <v>0.2840613825877569</v>
+        <v>0.4703147173233175</v>
       </c>
       <c r="E93">
-        <v>0.2250088205103724</v>
+        <v>0.2048858852237527</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.5922412072074037</v>
+        <v>-0.03740005729248776</v>
       </c>
       <c r="C94">
-        <v>1.081634958233782</v>
+        <v>0.07436501656109951</v>
       </c>
       <c r="D94">
-        <v>0.7460873147647362</v>
+        <v>0.04600407975407574</v>
       </c>
       <c r="E94">
-        <v>0.2164228498089012</v>
+        <v>0.03941938432942373</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.4369057263960352</v>
+        <v>-0.03620301360724685</v>
       </c>
       <c r="C95">
-        <v>0.8442569253278566</v>
+        <v>0.06275758532587289</v>
       </c>
       <c r="D95">
-        <v>0.5220488986667357</v>
+        <v>0.05688048765121611</v>
       </c>
       <c r="E95">
-        <v>0.3127836959164774</v>
+        <v>0.04208250835998608</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.5450077325941816</v>
+        <v>-0.004695215664914482</v>
       </c>
       <c r="C96">
-        <v>1.007315807439338</v>
+        <v>0.007661208585983207</v>
       </c>
       <c r="D96">
-        <v>0.6751415850409798</v>
+        <v>0.007240143192568237</v>
       </c>
       <c r="E96">
-        <v>0.2737690526388198</v>
+        <v>0.004308952398666821</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.5284392054368113</v>
+        <v>-0.4917067244688778</v>
       </c>
       <c r="C97">
-        <v>0.9940591271587347</v>
+        <v>1.001202977886062</v>
       </c>
       <c r="D97">
-        <v>0.7721118398464528</v>
+        <v>0.598885259349482</v>
       </c>
       <c r="E97">
-        <v>0.2207389212294795</v>
+        <v>0.2811601671981636</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.005214616939482096</v>
+        <v>-0.004847470559624496</v>
       </c>
       <c r="C98">
-        <v>0.007883976762476267</v>
+        <v>0.007876038420547241</v>
       </c>
       <c r="D98">
-        <v>0.007024960418998168</v>
+        <v>0.006577562954367165</v>
       </c>
       <c r="E98">
-        <v>0.005689745396699525</v>
+        <v>0.005343249988648975</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2381040250013599</v>
+        <v>-0.4207894190772005</v>
       </c>
       <c r="C99">
-        <v>0.4160149293673113</v>
+        <v>0.742342832054887</v>
       </c>
       <c r="D99">
-        <v>0.2984438782157564</v>
+        <v>0.5758440849602272</v>
       </c>
       <c r="E99">
-        <v>0.1814882125500966</v>
+        <v>0.1636230206571901</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.4822759781114979</v>
+        <v>-0.6305161525078484</v>
       </c>
       <c r="C100">
-        <v>0.9284963144838378</v>
+        <v>1.223558786386324</v>
       </c>
       <c r="D100">
-        <v>0.5644227939102184</v>
+        <v>0.5761646788418492</v>
       </c>
       <c r="E100">
-        <v>0.2047464058887093</v>
+        <v>0.2936592206339794</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.004267139856510227</v>
+        <v>-0.004064201744158499</v>
       </c>
       <c r="C101">
-        <v>0.007327343438091911</v>
+        <v>0.006858241569116799</v>
       </c>
       <c r="D101">
-        <v>0.005798081591831025</v>
+        <v>0.006387711011181503</v>
       </c>
       <c r="E101">
-        <v>0.005526980601245022</v>
+        <v>0.004943945532108769</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.004352184707636121</v>
+        <v>-0.3744598573398084</v>
       </c>
       <c r="C2">
-        <v>0.007745999262956658</v>
+        <v>0.575285119916248</v>
       </c>
       <c r="D2">
-        <v>0.006188661475682636</v>
+        <v>0.658095426298921</v>
       </c>
       <c r="E2">
-        <v>0.004686350595979886</v>
+        <v>0.2688833846461183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2054326987026093</v>
+        <v>-0.4740004609420442</v>
       </c>
       <c r="C3">
-        <v>0.3806432274540968</v>
+        <v>0.9290749266271193</v>
       </c>
       <c r="D3">
-        <v>0.2766998725871549</v>
+        <v>0.5940348057371134</v>
       </c>
       <c r="E3">
-        <v>0.1929818726552361</v>
+        <v>0.37603622491575</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.00418256055181471</v>
+        <v>-0.04085953771911235</v>
       </c>
       <c r="C4">
-        <v>0.007316445556308104</v>
+        <v>0.06591952775524869</v>
       </c>
       <c r="D4">
-        <v>0.006508254340473589</v>
+        <v>0.06978683561915856</v>
       </c>
       <c r="E4">
-        <v>0.004438460614268668</v>
+        <v>0.04697112904134037</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3696041656801276</v>
+        <v>-0.4764571799792597</v>
       </c>
       <c r="C5">
-        <v>0.6689501618955528</v>
+        <v>0.8691065800122817</v>
       </c>
       <c r="D5">
-        <v>0.5019118813207166</v>
+        <v>0.6848301069471431</v>
       </c>
       <c r="E5">
-        <v>0.2716467727173093</v>
+        <v>0.2130094934217799</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5363484330251138</v>
+        <v>-0.003954810866384384</v>
       </c>
       <c r="C6">
-        <v>1.202337536043754</v>
+        <v>0.007073475697163506</v>
       </c>
       <c r="D6">
-        <v>0.3764604526187792</v>
+        <v>0.006898434827820319</v>
       </c>
       <c r="E6">
-        <v>0.3052431700879304</v>
+        <v>0.005265159440875519</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3932919188047462</v>
+        <v>-0.4150934416031249</v>
       </c>
       <c r="C7">
-        <v>0.7894961659879736</v>
+        <v>0.8796477532190565</v>
       </c>
       <c r="D7">
-        <v>0.4853205570214311</v>
+        <v>0.6258504380458304</v>
       </c>
       <c r="E7">
-        <v>0.2121918862321982</v>
+        <v>0.2918003727036315</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4390689035192065</v>
+        <v>-0.004020044446192738</v>
       </c>
       <c r="C8">
-        <v>0.8332984321958589</v>
+        <v>0.008277600960649802</v>
       </c>
       <c r="D8">
-        <v>0.5173584910146309</v>
+        <v>0.005203170733770648</v>
       </c>
       <c r="E8">
-        <v>0.4648283161412853</v>
+        <v>0.005635443785379671</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.005228504116206004</v>
+        <v>-0.2107639099234085</v>
       </c>
       <c r="C9">
-        <v>0.00825956626269393</v>
+        <v>0.370163940207798</v>
       </c>
       <c r="D9">
-        <v>0.006958608416033457</v>
+        <v>0.3215448111222875</v>
       </c>
       <c r="E9">
-        <v>0.005270444973349639</v>
+        <v>0.2097156360781766</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2294396531054723</v>
+        <v>-0.5307683662971262</v>
       </c>
       <c r="C10">
-        <v>0.3887394169972557</v>
+        <v>0.9502389598325884</v>
       </c>
       <c r="D10">
-        <v>0.3100798994038499</v>
+        <v>0.648948938039849</v>
       </c>
       <c r="E10">
-        <v>0.1991411287675814</v>
+        <v>0.3903369162438782</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.3671763334258824</v>
+        <v>-0.2251662976873228</v>
       </c>
       <c r="C11">
-        <v>0.7645237313568182</v>
+        <v>0.3710065853499213</v>
       </c>
       <c r="D11">
-        <v>0.5011309084751336</v>
+        <v>0.3558995450881234</v>
       </c>
       <c r="E11">
-        <v>0.1323885997099103</v>
+        <v>0.2036377455941372</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.003836679486454755</v>
+        <v>-0.3766429636033747</v>
       </c>
       <c r="C12">
-        <v>0.007484758829217912</v>
+        <v>0.7345518629292431</v>
       </c>
       <c r="D12">
-        <v>0.005704889742529679</v>
+        <v>0.5500658496639735</v>
       </c>
       <c r="E12">
-        <v>0.004185208686446376</v>
+        <v>0.2521037287045684</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.04299846571938807</v>
+        <v>-0.04182921435502257</v>
       </c>
       <c r="C13">
-        <v>0.07238995831663207</v>
+        <v>0.07857583090329444</v>
       </c>
       <c r="D13">
-        <v>0.0587653805109364</v>
+        <v>0.05937305246357883</v>
       </c>
       <c r="E13">
-        <v>0.04336641422501668</v>
+        <v>0.0456157353198506</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.2157787396566439</v>
+        <v>-0.1637112764928272</v>
       </c>
       <c r="C14">
-        <v>0.3451808213406092</v>
+        <v>0.3161330439884927</v>
       </c>
       <c r="D14">
-        <v>0.2985373618046791</v>
+        <v>0.2719409817290936</v>
       </c>
       <c r="E14">
-        <v>0.2261576229460758</v>
+        <v>0.2117919802854913</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.003645016059758011</v>
+        <v>-0.1805822957178413</v>
       </c>
       <c r="C15">
-        <v>0.006966563555099056</v>
+        <v>0.3388378749448521</v>
       </c>
       <c r="D15">
-        <v>0.005839343044260252</v>
+        <v>0.3037835590630848</v>
       </c>
       <c r="E15">
-        <v>0.004255308160239047</v>
+        <v>0.197996354081406</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.04058382099393196</v>
+        <v>-0.3992130621302091</v>
       </c>
       <c r="C16">
-        <v>0.06138498994352085</v>
+        <v>0.685958340278053</v>
       </c>
       <c r="D16">
-        <v>0.06566339469576093</v>
+        <v>0.6101764748416507</v>
       </c>
       <c r="E16">
-        <v>0.04326093883449416</v>
+        <v>0.268457885748767</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4204603281097394</v>
+        <v>-0.004759203248569056</v>
       </c>
       <c r="C17">
-        <v>0.7604123609849316</v>
+        <v>0.007338971602073576</v>
       </c>
       <c r="D17">
-        <v>0.5446027350985257</v>
+        <v>0.007714015573695122</v>
       </c>
       <c r="E17">
-        <v>0.4278200679712114</v>
+        <v>0.006104378665714482</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.4139283885218549</v>
+        <v>-0.4856090717023412</v>
       </c>
       <c r="C18">
-        <v>0.7522214997024478</v>
+        <v>0.9727857262666501</v>
       </c>
       <c r="D18">
-        <v>0.6078845564330747</v>
+        <v>0.7097229166622797</v>
       </c>
       <c r="E18">
-        <v>0.1568078620723747</v>
+        <v>0.2396264640534366</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4228647212563335</v>
+        <v>-0.4520767636698083</v>
       </c>
       <c r="C19">
-        <v>0.7805703964193704</v>
+        <v>0.8625618218999999</v>
       </c>
       <c r="D19">
-        <v>0.4617632054186209</v>
+        <v>0.5668867261861518</v>
       </c>
       <c r="E19">
-        <v>0.2821228282582278</v>
+        <v>0.2954813687908853</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4448357562464684</v>
+        <v>-0.3561806123308153</v>
       </c>
       <c r="C20">
-        <v>0.7366572569045572</v>
+        <v>0.6365017464596876</v>
       </c>
       <c r="D20">
-        <v>0.6294846688701695</v>
+        <v>0.5280289725312701</v>
       </c>
       <c r="E20">
-        <v>0.2004608386442619</v>
+        <v>0.3251845653085406</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.004654068988376544</v>
+        <v>-0.3430100118296676</v>
       </c>
       <c r="C21">
-        <v>0.007863883624894213</v>
+        <v>0.717443197400578</v>
       </c>
       <c r="D21">
-        <v>0.0065069304263098</v>
+        <v>0.5213305739979099</v>
       </c>
       <c r="E21">
-        <v>0.004942530514163211</v>
+        <v>0.1558551700059316</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3721981865103939</v>
+        <v>-0.4525895016305155</v>
       </c>
       <c r="C22">
-        <v>0.8184521913960034</v>
+        <v>0.7403879080337311</v>
       </c>
       <c r="D22">
-        <v>0.6018047583386904</v>
+        <v>0.5588200486405247</v>
       </c>
       <c r="E22">
-        <v>0.1126152502554972</v>
+        <v>0.4028188619356624</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.005447002374116302</v>
+        <v>-0.4191897151561962</v>
       </c>
       <c r="C23">
-        <v>0.008534073868971708</v>
+        <v>0.7575786427733262</v>
       </c>
       <c r="D23">
-        <v>0.006948869547199401</v>
+        <v>0.5727859633181468</v>
       </c>
       <c r="E23">
-        <v>0.005406743611630368</v>
+        <v>0.2773079542589878</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.1943812318863563</v>
+        <v>-0.34302451782482</v>
       </c>
       <c r="C24">
-        <v>0.3058031783758579</v>
+        <v>0.6080235011335681</v>
       </c>
       <c r="D24">
-        <v>0.3172157895624855</v>
+        <v>0.5224090386751922</v>
       </c>
       <c r="E24">
-        <v>0.201771914403563</v>
+        <v>0.3325160430496901</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.2217038851472304</v>
+        <v>-0.6450734016635934</v>
       </c>
       <c r="C25">
-        <v>0.4100705807279039</v>
+        <v>1.199128644487195</v>
       </c>
       <c r="D25">
-        <v>0.2879828301636956</v>
+        <v>0.7046113791852266</v>
       </c>
       <c r="E25">
-        <v>0.1718862910830491</v>
+        <v>0.4178676357743231</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.4978069627706196</v>
+        <v>-0.4310992831070362</v>
       </c>
       <c r="C26">
-        <v>1.030663423478463</v>
+        <v>0.7716928386429707</v>
       </c>
       <c r="D26">
-        <v>0.5627047645591138</v>
+        <v>0.5503798563457314</v>
       </c>
       <c r="E26">
-        <v>0.2707070074407772</v>
+        <v>0.3680563230037685</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3824101803858209</v>
+        <v>-0.04713414852464368</v>
       </c>
       <c r="C27">
-        <v>0.8173634949093265</v>
+        <v>0.0768779263408985</v>
       </c>
       <c r="D27">
-        <v>0.4506474614875166</v>
+        <v>0.07094485073123291</v>
       </c>
       <c r="E27">
-        <v>0.1652901257372612</v>
+        <v>0.04703562730787968</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.5214543764493422</v>
+        <v>-0.5731176058777834</v>
       </c>
       <c r="C28">
-        <v>1.134931863330855</v>
+        <v>1.048360529634285</v>
       </c>
       <c r="D28">
-        <v>0.6009563261859808</v>
+        <v>0.86987541187291</v>
       </c>
       <c r="E28">
-        <v>0.2144509681500897</v>
+        <v>0.1489445036556765</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.5478598100287815</v>
+        <v>-0.004450722183448609</v>
       </c>
       <c r="C29">
-        <v>0.8295481494775181</v>
+        <v>0.00810750872970733</v>
       </c>
       <c r="D29">
-        <v>0.8744089862965542</v>
+        <v>0.006586436153301229</v>
       </c>
       <c r="E29">
-        <v>0.3126560638922969</v>
+        <v>0.005653420277017705</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.5316893459197618</v>
+        <v>-0.1967990955300679</v>
       </c>
       <c r="C30">
-        <v>0.9426461094158399</v>
+        <v>0.4038085007380025</v>
       </c>
       <c r="D30">
-        <v>0.7261805394598309</v>
+        <v>0.2945426432325709</v>
       </c>
       <c r="E30">
-        <v>0.250408410849652</v>
+        <v>0.1497122393016477</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.005498850808466697</v>
+        <v>-0.1809793179680804</v>
       </c>
       <c r="C31">
-        <v>0.008531171664749537</v>
+        <v>0.3561138528116043</v>
       </c>
       <c r="D31">
-        <v>0.007206086907492361</v>
+        <v>0.2998963821423941</v>
       </c>
       <c r="E31">
-        <v>0.005204966569349276</v>
+        <v>0.1754042689005497</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5016041908532201</v>
+        <v>-0.372626580135057</v>
       </c>
       <c r="C32">
-        <v>0.9733112178717449</v>
+        <v>0.7145749040606489</v>
       </c>
       <c r="D32">
-        <v>0.5814933851012434</v>
+        <v>0.5422350507115741</v>
       </c>
       <c r="E32">
-        <v>0.2618508290728334</v>
+        <v>0.3671249140572002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.4810634702269022</v>
+        <v>-0.1994058374974158</v>
       </c>
       <c r="C33">
-        <v>0.8079162647276752</v>
+        <v>0.3627922533414492</v>
       </c>
       <c r="D33">
-        <v>0.7799512098282184</v>
+        <v>0.2934296712870236</v>
       </c>
       <c r="E33">
-        <v>0.2430243005396756</v>
+        <v>0.2156209801687293</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003965311758456511</v>
+        <v>-0.5130512105324651</v>
       </c>
       <c r="C34">
-        <v>0.007200462521360188</v>
+        <v>0.9495123513848294</v>
       </c>
       <c r="D34">
-        <v>0.006010752333866892</v>
+        <v>0.8433359096644018</v>
       </c>
       <c r="E34">
-        <v>0.004637191441888282</v>
+        <v>0.1977885621245102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2105473923022868</v>
+        <v>-0.538174108183349</v>
       </c>
       <c r="C35">
-        <v>0.4063296823445907</v>
+        <v>0.926059136377253</v>
       </c>
       <c r="D35">
-        <v>0.240464534820717</v>
+        <v>0.6130893342383853</v>
       </c>
       <c r="E35">
-        <v>0.1875064915557125</v>
+        <v>0.4318919490719449</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.236564574910266</v>
+        <v>-0.4152203935784147</v>
       </c>
       <c r="C36">
-        <v>0.3860464123321031</v>
+        <v>0.8257738673088932</v>
       </c>
       <c r="D36">
-        <v>0.270197115535881</v>
+        <v>0.4834628436235506</v>
       </c>
       <c r="E36">
-        <v>0.2434616291270562</v>
+        <v>0.3792302511573006</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.004448030384000532</v>
+        <v>-0.5727778993232873</v>
       </c>
       <c r="C37">
-        <v>0.007163716139719545</v>
+        <v>1.011076026427251</v>
       </c>
       <c r="D37">
-        <v>0.006772367983740331</v>
+        <v>0.7455779182331679</v>
       </c>
       <c r="E37">
-        <v>0.005064441030184216</v>
+        <v>0.3668675266548024</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.004261944617849289</v>
+        <v>-0.4695739765026696</v>
       </c>
       <c r="C38">
-        <v>0.007507530415327039</v>
+        <v>0.8902073815055863</v>
       </c>
       <c r="D38">
-        <v>0.005854090399482063</v>
+        <v>0.6638862136058873</v>
       </c>
       <c r="E38">
-        <v>0.005199638111283789</v>
+        <v>0.2876938933062838</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1838555641887465</v>
+        <v>-0.5541943537204335</v>
       </c>
       <c r="C39">
-        <v>0.3518804684616266</v>
+        <v>0.9891034387826985</v>
       </c>
       <c r="D39">
-        <v>0.2585222201899706</v>
+        <v>0.5380884755909078</v>
       </c>
       <c r="E39">
-        <v>0.1898933946205584</v>
+        <v>0.5399724303627236</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.5230293186592522</v>
+        <v>-0.4978112197119217</v>
       </c>
       <c r="C40">
-        <v>1.03181502882602</v>
+        <v>0.9817555225095281</v>
       </c>
       <c r="D40">
-        <v>0.6341301398066183</v>
+        <v>0.557628703901985</v>
       </c>
       <c r="E40">
-        <v>0.2074717826262942</v>
+        <v>0.3345553996465472</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.7575469759521063</v>
+        <v>-0.4854082400959237</v>
       </c>
       <c r="C41">
-        <v>1.150919843733361</v>
+        <v>0.9969790597242766</v>
       </c>
       <c r="D41">
-        <v>1.008405012796563</v>
+        <v>0.294267698352225</v>
       </c>
       <c r="E41">
-        <v>0.164519367125575</v>
+        <v>0.5152810443215603</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.6546671528367529</v>
+        <v>-0.4005136315823583</v>
       </c>
       <c r="C42">
-        <v>1.299443682786512</v>
+        <v>0.8225749330294947</v>
       </c>
       <c r="D42">
-        <v>0.5696061322379772</v>
+        <v>0.4577728095286236</v>
       </c>
       <c r="E42">
-        <v>0.3248976920977337</v>
+        <v>0.2736340554534857</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.03942700417007169</v>
+        <v>-0.2441293997951375</v>
       </c>
       <c r="C43">
-        <v>0.07146531114985168</v>
+        <v>0.4029027673061513</v>
       </c>
       <c r="D43">
-        <v>0.0547364612016072</v>
+        <v>0.2626151625330799</v>
       </c>
       <c r="E43">
-        <v>0.0405163822308523</v>
+        <v>0.2997063786496791</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4850339582866051</v>
+        <v>-0.4720781852444541</v>
       </c>
       <c r="C44">
-        <v>0.9043275287753982</v>
+        <v>0.8656818401304015</v>
       </c>
       <c r="D44">
-        <v>0.5915252670775174</v>
+        <v>0.5360112272840447</v>
       </c>
       <c r="E44">
-        <v>0.2345145124267868</v>
+        <v>0.3695180929360448</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.4024210681850092</v>
+        <v>-0.4957618103478134</v>
       </c>
       <c r="C45">
-        <v>0.8232828190505757</v>
+        <v>0.9553185078000976</v>
       </c>
       <c r="D45">
-        <v>0.4765778264887661</v>
+        <v>0.6304166745062022</v>
       </c>
       <c r="E45">
-        <v>0.1913434064327586</v>
+        <v>0.3929592055628534</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.5169940873471136</v>
+        <v>-0.5018007917434426</v>
       </c>
       <c r="C46">
-        <v>1.046752900676993</v>
+        <v>0.8647222848174643</v>
       </c>
       <c r="D46">
-        <v>0.6152308594780977</v>
+        <v>0.5403914364137942</v>
       </c>
       <c r="E46">
-        <v>0.2631431242166172</v>
+        <v>0.4637064733633092</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4105045258093025</v>
+        <v>-0.3797617073886207</v>
       </c>
       <c r="C47">
-        <v>0.8246067069588563</v>
+        <v>0.5915888782151436</v>
       </c>
       <c r="D47">
-        <v>0.5645608909321805</v>
+        <v>0.5672912165633862</v>
       </c>
       <c r="E47">
-        <v>0.2404783591897706</v>
+        <v>0.3814881518782702</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2318948695545197</v>
+        <v>-0.00430422390721722</v>
       </c>
       <c r="C48">
-        <v>0.3812055048539733</v>
+        <v>0.007956792373226579</v>
       </c>
       <c r="D48">
-        <v>0.3212540962287389</v>
+        <v>0.006388054979575736</v>
       </c>
       <c r="E48">
-        <v>0.2046514805728175</v>
+        <v>0.005669319824148542</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5628657602232461</v>
+        <v>-0.003352540261454201</v>
       </c>
       <c r="C49">
-        <v>1.12806908254476</v>
+        <v>0.006841940140605158</v>
       </c>
       <c r="D49">
-        <v>0.7796069439601258</v>
+        <v>0.006375385299968498</v>
       </c>
       <c r="E49">
-        <v>0.1217146075190404</v>
+        <v>0.004339197552753862</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.4323451401134802</v>
+        <v>-0.5755893107437996</v>
       </c>
       <c r="C50">
-        <v>0.8495283401340877</v>
+        <v>1.109119414885889</v>
       </c>
       <c r="D50">
-        <v>0.6521034014821604</v>
+        <v>0.6689852992166211</v>
       </c>
       <c r="E50">
-        <v>0.2939538484978712</v>
+        <v>0.3227780314178089</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5623140360277853</v>
+        <v>-0.004537503554268059</v>
       </c>
       <c r="C51">
-        <v>1.118398873429561</v>
+        <v>0.00786401562717905</v>
       </c>
       <c r="D51">
-        <v>0.5248160337533078</v>
+        <v>0.006612910339298963</v>
       </c>
       <c r="E51">
-        <v>0.4605897377223098</v>
+        <v>0.006174959098678116</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.3484327231886483</v>
+        <v>-0.4653456676078797</v>
       </c>
       <c r="C52">
-        <v>0.6856193450178968</v>
+        <v>0.6173957371453326</v>
       </c>
       <c r="D52">
-        <v>0.5036043159252348</v>
+        <v>0.7382059120332474</v>
       </c>
       <c r="E52">
-        <v>0.2237035553889703</v>
+        <v>0.4110600592883199</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.4266320929151338</v>
+        <v>-0.4312571584963122</v>
       </c>
       <c r="C53">
-        <v>0.8837681298431553</v>
+        <v>0.8790784543316185</v>
       </c>
       <c r="D53">
-        <v>0.4553342114081008</v>
+        <v>0.6237769962415444</v>
       </c>
       <c r="E53">
-        <v>0.2684326393554212</v>
+        <v>0.2945643270325971</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.003602841001964387</v>
+        <v>-0.004889179150987313</v>
       </c>
       <c r="C54">
-        <v>0.006727837005061352</v>
+        <v>0.008415442672891257</v>
       </c>
       <c r="D54">
-        <v>0.006058712722539154</v>
+        <v>0.007458652758802076</v>
       </c>
       <c r="E54">
-        <v>0.004200309886335599</v>
+        <v>0.005336048979850487</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.180242649841879</v>
+        <v>-0.1996189559587785</v>
       </c>
       <c r="C55">
-        <v>0.3336004283467622</v>
+        <v>0.4077697647959828</v>
       </c>
       <c r="D55">
-        <v>0.312449742593308</v>
+        <v>0.2776339126260099</v>
       </c>
       <c r="E55">
-        <v>0.1364443431327799</v>
+        <v>0.1826772012260967</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6058684252315337</v>
+        <v>-0.4668402021815527</v>
       </c>
       <c r="C56">
-        <v>0.9468897233455288</v>
+        <v>0.9264442282705329</v>
       </c>
       <c r="D56">
-        <v>0.8808512910615351</v>
+        <v>0.6641413869620004</v>
       </c>
       <c r="E56">
-        <v>0.2396876036801572</v>
+        <v>0.2474772766352774</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.395995829180911</v>
+        <v>-0.04381454281818086</v>
       </c>
       <c r="C57">
-        <v>0.6279646330759847</v>
+        <v>0.07456269612964446</v>
       </c>
       <c r="D57">
-        <v>0.5966108899891255</v>
+        <v>0.06357524820237583</v>
       </c>
       <c r="E57">
-        <v>0.2773794945611311</v>
+        <v>0.05124969054140514</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.004371523977677859</v>
+        <v>-0.3861014255333774</v>
       </c>
       <c r="C58">
-        <v>0.007643539053333526</v>
+        <v>0.6868580747155412</v>
       </c>
       <c r="D58">
-        <v>0.006548218374606529</v>
+        <v>0.51297813050632</v>
       </c>
       <c r="E58">
-        <v>0.004410342315279767</v>
+        <v>0.3997490666643572</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.5456773294084595</v>
+        <v>-0.4537673231009137</v>
       </c>
       <c r="C59">
-        <v>1.118050883594816</v>
+        <v>0.8715657748813578</v>
       </c>
       <c r="D59">
-        <v>0.633100109971901</v>
+        <v>0.5983085347655164</v>
       </c>
       <c r="E59">
-        <v>0.209738092652729</v>
+        <v>0.3429801547200109</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.393232131585549</v>
+        <v>-0.4469702417216987</v>
       </c>
       <c r="C60">
-        <v>0.8052859679601831</v>
+        <v>0.967388641219914</v>
       </c>
       <c r="D60">
-        <v>0.5890379260686406</v>
+        <v>0.5514846198667723</v>
       </c>
       <c r="E60">
-        <v>0.2038866884819776</v>
+        <v>0.30938029915511</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.004817237187189239</v>
+        <v>-0.5320624265569156</v>
       </c>
       <c r="C61">
-        <v>0.00772755229355326</v>
+        <v>1.013380031758971</v>
       </c>
       <c r="D61">
-        <v>0.007036002115162848</v>
+        <v>0.7106148496116135</v>
       </c>
       <c r="E61">
-        <v>0.004874812470304114</v>
+        <v>0.2735018125549101</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.6004761571325432</v>
+        <v>-0.4306358727271721</v>
       </c>
       <c r="C62">
-        <v>1.088750793451519</v>
+        <v>0.8847780129313161</v>
       </c>
       <c r="D62">
-        <v>0.7506427756434801</v>
+        <v>0.4607251144884357</v>
       </c>
       <c r="E62">
-        <v>0.2450167883865437</v>
+        <v>0.3448962546849986</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4091648230868741</v>
+        <v>-0.005057167431442573</v>
       </c>
       <c r="C63">
-        <v>0.753279880312887</v>
+        <v>0.008466376007255754</v>
       </c>
       <c r="D63">
-        <v>0.5101864480678825</v>
+        <v>0.006830512824417678</v>
       </c>
       <c r="E63">
-        <v>0.2369609272394781</v>
+        <v>0.00646566427217303</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.6050368369874818</v>
+        <v>-0.221342898680799</v>
       </c>
       <c r="C64">
-        <v>0.8932479638201077</v>
+        <v>0.3569254960490851</v>
       </c>
       <c r="D64">
-        <v>0.782030075112498</v>
+        <v>0.3181885574390745</v>
       </c>
       <c r="E64">
-        <v>0.3604011657175956</v>
+        <v>0.2495152638526884</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1951588995060421</v>
+        <v>-0.00475727476825945</v>
       </c>
       <c r="C65">
-        <v>0.372545745598031</v>
+        <v>0.008187398893986685</v>
       </c>
       <c r="D65">
-        <v>0.2692971779836124</v>
+        <v>0.006591086455958235</v>
       </c>
       <c r="E65">
-        <v>0.1791525294559041</v>
+        <v>0.006332682264814878</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.4090512683802548</v>
+        <v>-0.428582360023133</v>
       </c>
       <c r="C66">
-        <v>0.704362906010726</v>
+        <v>0.9103272940512837</v>
       </c>
       <c r="D66">
-        <v>0.6070546932897785</v>
+        <v>0.5843591590874553</v>
       </c>
       <c r="E66">
-        <v>0.2398302325381806</v>
+        <v>0.3033375251639535</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.2088360410341975</v>
+        <v>-0.404909892981757</v>
       </c>
       <c r="C67">
-        <v>0.4223130344335433</v>
+        <v>0.7169793795143756</v>
       </c>
       <c r="D67">
-        <v>0.1890745660325762</v>
+        <v>0.5078044003540647</v>
       </c>
       <c r="E67">
-        <v>0.2134519168879105</v>
+        <v>0.3353320590146493</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.539517137153077</v>
+        <v>-0.004169627977911624</v>
       </c>
       <c r="C68">
-        <v>0.9224037010292643</v>
+        <v>0.007102039301884072</v>
       </c>
       <c r="D68">
-        <v>0.5829859197764429</v>
+        <v>0.007236387056445237</v>
       </c>
       <c r="E68">
-        <v>0.328910965385633</v>
+        <v>0.005413631158198285</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4230313242963901</v>
+        <v>-0.3695273896798711</v>
       </c>
       <c r="C69">
-        <v>0.7924557955440014</v>
+        <v>0.7813981148858592</v>
       </c>
       <c r="D69">
-        <v>0.6025318489248495</v>
+        <v>0.41533196798687</v>
       </c>
       <c r="E69">
-        <v>0.2669233124684677</v>
+        <v>0.2912291688182942</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.4291700468125019</v>
+        <v>-0.04077858697279498</v>
       </c>
       <c r="C70">
-        <v>0.8662555223581292</v>
+        <v>0.07046243704612547</v>
       </c>
       <c r="D70">
-        <v>0.5009324296145209</v>
+        <v>0.06369966087463846</v>
       </c>
       <c r="E70">
-        <v>0.2035963971739075</v>
+        <v>0.0482488543365792</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.004414209016783101</v>
+        <v>-0.004936377153773348</v>
       </c>
       <c r="C71">
-        <v>0.007969734540990996</v>
+        <v>0.008325096842118195</v>
       </c>
       <c r="D71">
-        <v>0.005835578399717697</v>
+        <v>0.007032396743585638</v>
       </c>
       <c r="E71">
-        <v>0.004911263049888208</v>
+        <v>0.006127604715047683</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.004572109080496042</v>
+        <v>-0.2119831967704433</v>
       </c>
       <c r="C72">
-        <v>0.007824206504663356</v>
+        <v>0.4121842468173382</v>
       </c>
       <c r="D72">
-        <v>0.006335007035675504</v>
+        <v>0.2685554560896795</v>
       </c>
       <c r="E72">
-        <v>0.004987020604038528</v>
+        <v>0.2105619024546686</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4171039520398375</v>
+        <v>-0.004626375904866093</v>
       </c>
       <c r="C73">
-        <v>0.6843754717835181</v>
+        <v>0.007548493625591008</v>
       </c>
       <c r="D73">
-        <v>0.4920056871310372</v>
+        <v>0.007382515502859242</v>
       </c>
       <c r="E73">
-        <v>0.3765583519041845</v>
+        <v>0.005908078502646965</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5068064092875481</v>
+        <v>-0.6261772737879536</v>
       </c>
       <c r="C74">
-        <v>0.9523533761884191</v>
+        <v>0.9989461492362803</v>
       </c>
       <c r="D74">
-        <v>0.6678623502904153</v>
+        <v>0.9774326215699167</v>
       </c>
       <c r="E74">
-        <v>0.249281114902298</v>
+        <v>0.1918147958904769</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.2072549994240485</v>
+        <v>-0.03944310730653756</v>
       </c>
       <c r="C75">
-        <v>0.3726875419931946</v>
+        <v>0.07261691225172336</v>
       </c>
       <c r="D75">
-        <v>0.2829411198400382</v>
+        <v>0.05490764604646287</v>
       </c>
       <c r="E75">
-        <v>0.1926234295876198</v>
+        <v>0.0529219626477159</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.3779823346687524</v>
+        <v>-0.4886787734614455</v>
       </c>
       <c r="C76">
-        <v>0.750747295515921</v>
+        <v>1.021479186170991</v>
       </c>
       <c r="D76">
-        <v>0.5112657402180838</v>
+        <v>0.6989321340312683</v>
       </c>
       <c r="E76">
-        <v>0.218830413859787</v>
+        <v>0.1999425225545018</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.004159753714348107</v>
+        <v>-0.04358293852150733</v>
       </c>
       <c r="C77">
-        <v>0.006707406523130575</v>
+        <v>0.07482201071558139</v>
       </c>
       <c r="D77">
-        <v>0.00688396290639223</v>
+        <v>0.06146205786957541</v>
       </c>
       <c r="E77">
-        <v>0.004750389865823501</v>
+        <v>0.05231150143235553</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.5838428305797343</v>
+        <v>-0.5000791002445194</v>
       </c>
       <c r="C78">
-        <v>1.149818688164883</v>
+        <v>0.987923649779591</v>
       </c>
       <c r="D78">
-        <v>0.6812156801489486</v>
+        <v>0.6702183028758232</v>
       </c>
       <c r="E78">
-        <v>0.1879437883858689</v>
+        <v>0.348884770866128</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.5338807333692284</v>
+        <v>-0.4186056594549624</v>
       </c>
       <c r="C79">
-        <v>0.9241462381642557</v>
+        <v>0.689016149331375</v>
       </c>
       <c r="D79">
-        <v>0.7936749108279136</v>
+        <v>0.5099385849438069</v>
       </c>
       <c r="E79">
-        <v>0.2315356248505095</v>
+        <v>0.4287956260388588</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.6073124323963998</v>
+        <v>-0.4369029748317606</v>
       </c>
       <c r="C80">
-        <v>0.9479733468304311</v>
+        <v>0.9004645614183437</v>
       </c>
       <c r="D80">
-        <v>0.8344426303019461</v>
+        <v>0.5723747749392541</v>
       </c>
       <c r="E80">
-        <v>0.3087756411966711</v>
+        <v>0.2477030974084375</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.2083924025927429</v>
+        <v>-0.1847020723568112</v>
       </c>
       <c r="C81">
-        <v>0.409901394887532</v>
+        <v>0.3301744313122391</v>
       </c>
       <c r="D81">
-        <v>0.270459321033578</v>
+        <v>0.2755675812878418</v>
       </c>
       <c r="E81">
-        <v>0.1602027274793129</v>
+        <v>0.2300584681082995</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.1734300629886067</v>
+        <v>-0.3851062746503562</v>
       </c>
       <c r="C82">
-        <v>0.2966364852493102</v>
+        <v>0.7843337512530113</v>
       </c>
       <c r="D82">
-        <v>0.3253153957715557</v>
+        <v>0.3819559969681608</v>
       </c>
       <c r="E82">
-        <v>0.1332749915573022</v>
+        <v>0.2900354894997761</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4991858214194237</v>
+        <v>-0.6072618762667303</v>
       </c>
       <c r="C83">
-        <v>0.9186005476927523</v>
+        <v>1.079967952621904</v>
       </c>
       <c r="D83">
-        <v>0.6210388023058625</v>
+        <v>0.5848491480022621</v>
       </c>
       <c r="E83">
-        <v>0.3257280033879591</v>
+        <v>0.5356397744749304</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.003606452507982104</v>
+        <v>-0.6602115826637575</v>
       </c>
       <c r="C84">
-        <v>0.007153110081680516</v>
+        <v>1.098680873534676</v>
       </c>
       <c r="D84">
-        <v>0.005440238202345785</v>
+        <v>0.68486277182026</v>
       </c>
       <c r="E84">
-        <v>0.004316354749841723</v>
+        <v>0.4433851802376443</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4686341969124865</v>
+        <v>-0.179564516519071</v>
       </c>
       <c r="C85">
-        <v>0.9904776876008562</v>
+        <v>0.3687907165999931</v>
       </c>
       <c r="D85">
-        <v>0.6927215341420917</v>
+        <v>0.2805085528271777</v>
       </c>
       <c r="E85">
-        <v>0.1114740839524549</v>
+        <v>0.1967181140470367</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.4625876957115446</v>
+        <v>-0.3898221898853995</v>
       </c>
       <c r="C86">
-        <v>0.9500573235373893</v>
+        <v>0.8061365815251446</v>
       </c>
       <c r="D86">
-        <v>0.6179401646465155</v>
+        <v>0.4013382496448504</v>
       </c>
       <c r="E86">
-        <v>0.2789930014639466</v>
+        <v>0.3481007424098018</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.5930341823580187</v>
+        <v>-0.1956377887337211</v>
       </c>
       <c r="C87">
-        <v>0.8704313138454498</v>
+        <v>0.3442850485480639</v>
       </c>
       <c r="D87">
-        <v>0.8228515421432189</v>
+        <v>0.3211888763095234</v>
       </c>
       <c r="E87">
-        <v>0.3378658000429528</v>
+        <v>0.2002584114219549</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4468595510060741</v>
+        <v>-0.04198381878219894</v>
       </c>
       <c r="C88">
-        <v>0.781247819992686</v>
+        <v>0.07419062441326156</v>
       </c>
       <c r="D88">
-        <v>0.6607109422960817</v>
+        <v>0.05972290613810263</v>
       </c>
       <c r="E88">
-        <v>0.1863513293662579</v>
+        <v>0.05083043058023839</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.6741958961466432</v>
+        <v>-0.2145581418957413</v>
       </c>
       <c r="C89">
-        <v>0.994290394466985</v>
+        <v>0.411877697264055</v>
       </c>
       <c r="D89">
-        <v>0.8268414493344038</v>
+        <v>0.2846812040500626</v>
       </c>
       <c r="E89">
-        <v>0.3488719549745663</v>
+        <v>0.2048665197011993</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.6568583665717125</v>
+        <v>-0.5095793111359194</v>
       </c>
       <c r="C90">
-        <v>1.113630872616759</v>
+        <v>0.943670981854179</v>
       </c>
       <c r="D90">
-        <v>0.7902196001661408</v>
+        <v>0.7420043021041807</v>
       </c>
       <c r="E90">
-        <v>0.269755970350693</v>
+        <v>0.3240559017294534</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.5024718995956089</v>
+        <v>-0.004615458566166092</v>
       </c>
       <c r="C91">
-        <v>0.9347400268285564</v>
+        <v>0.007502725319257542</v>
       </c>
       <c r="D91">
-        <v>0.6190842303402773</v>
+        <v>0.007428068656882733</v>
       </c>
       <c r="E91">
-        <v>0.2106459544486982</v>
+        <v>0.005888682236727606</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.004162275673918804</v>
+        <v>-0.03895296254318992</v>
       </c>
       <c r="C92">
-        <v>0.007065206354923711</v>
+        <v>0.06849685421721981</v>
       </c>
       <c r="D92">
-        <v>0.006353043544121337</v>
+        <v>0.06615438642632783</v>
       </c>
       <c r="E92">
-        <v>0.004967821968207883</v>
+        <v>0.04328121851273491</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3207948899250864</v>
+        <v>-0.03671641562484896</v>
       </c>
       <c r="C93">
-        <v>0.646492231173419</v>
+        <v>0.06815675664366215</v>
       </c>
       <c r="D93">
-        <v>0.4703147173233175</v>
+        <v>0.06212356592676539</v>
       </c>
       <c r="E93">
-        <v>0.2048858852237527</v>
+        <v>0.04226870320273759</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.03740005729248776</v>
+        <v>-0.3773748159530188</v>
       </c>
       <c r="C94">
-        <v>0.07436501656109951</v>
+        <v>0.745036341858334</v>
       </c>
       <c r="D94">
-        <v>0.04600407975407574</v>
+        <v>0.6083286038259903</v>
       </c>
       <c r="E94">
-        <v>0.03941938432942373</v>
+        <v>0.2141493571919713</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.03620301360724685</v>
+        <v>-0.004915024446254806</v>
       </c>
       <c r="C95">
-        <v>0.06275758532587289</v>
+        <v>0.008159073322338239</v>
       </c>
       <c r="D95">
-        <v>0.05688048765121611</v>
+        <v>0.007587985227987256</v>
       </c>
       <c r="E95">
-        <v>0.04208250835998608</v>
+        <v>0.005619778197286304</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.004695215664914482</v>
+        <v>-0.5212631840599651</v>
       </c>
       <c r="C96">
-        <v>0.007661208585983207</v>
+        <v>0.9597113914666494</v>
       </c>
       <c r="D96">
-        <v>0.007240143192568237</v>
+        <v>0.5807410150503508</v>
       </c>
       <c r="E96">
-        <v>0.004308952398666821</v>
+        <v>0.3346283323612149</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.4917067244688778</v>
+        <v>-0.003936214662966876</v>
       </c>
       <c r="C97">
-        <v>1.001202977886062</v>
+        <v>0.007273700226886177</v>
       </c>
       <c r="D97">
-        <v>0.598885259349482</v>
+        <v>0.006398311594755767</v>
       </c>
       <c r="E97">
-        <v>0.2811601671981636</v>
+        <v>0.005551428676975786</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.004847470559624496</v>
+        <v>-0.2467232227473591</v>
       </c>
       <c r="C98">
-        <v>0.007876038420547241</v>
+        <v>0.4359911236046564</v>
       </c>
       <c r="D98">
-        <v>0.006577562954367165</v>
+        <v>0.2704435045780856</v>
       </c>
       <c r="E98">
-        <v>0.005343249988648975</v>
+        <v>0.2510360162829938</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.4207894190772005</v>
+        <v>-0.3927106303054104</v>
       </c>
       <c r="C99">
-        <v>0.742342832054887</v>
+        <v>0.749651847376183</v>
       </c>
       <c r="D99">
-        <v>0.5758440849602272</v>
+        <v>0.5756726739571416</v>
       </c>
       <c r="E99">
-        <v>0.1636230206571901</v>
+        <v>0.2851596668907586</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.6305161525078484</v>
+        <v>-0.004782090803969572</v>
       </c>
       <c r="C100">
-        <v>1.223558786386324</v>
+        <v>0.007958829350348046</v>
       </c>
       <c r="D100">
-        <v>0.5761646788418492</v>
+        <v>0.007936199348692833</v>
       </c>
       <c r="E100">
-        <v>0.2936592206339794</v>
+        <v>0.005010177493769226</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.004064201744158499</v>
+        <v>-0.004658890560506311</v>
       </c>
       <c r="C101">
-        <v>0.006858241569116799</v>
+        <v>0.00826832462466459</v>
       </c>
       <c r="D101">
-        <v>0.006387711011181503</v>
+        <v>0.007489775085121825</v>
       </c>
       <c r="E101">
-        <v>0.004943945532108769</v>
+        <v>0.004816589182829274</v>
       </c>
     </row>
   </sheetData>
